--- a/outputs/opm_merge_distribution.xlsx
+++ b/outputs/opm_merge_distribution.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>Merge1</t>
   </si>
@@ -63,21 +63,6 @@
   </si>
   <si>
     <t>Unmatched</t>
-  </si>
-  <si>
-    <t>foia13</t>
-  </si>
-  <si>
-    <t>foia16</t>
-  </si>
-  <si>
-    <t>feds</t>
-  </si>
-  <si>
-    <t>Obs count</t>
-  </si>
-  <si>
-    <t>buzz</t>
   </si>
 </sst>
 </file>
@@ -127,10 +112,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="O1" sqref="O1:T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -432,50 +417,47 @@
     <col min="13" max="13" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="P2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -512,20 +494,8 @@
       <c r="M3" t="s">
         <v>6</v>
       </c>
-      <c r="P3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>14</v>
-      </c>
-      <c r="R3" t="s">
-        <v>15</v>
-      </c>
-      <c r="S3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2000</v>
       </c>
@@ -568,20 +538,8 @@
         <f>K4-L4</f>
         <v>3487855</v>
       </c>
-      <c r="P4">
-        <v>7001743</v>
-      </c>
-      <c r="Q4">
-        <v>4318824</v>
-      </c>
-      <c r="R4">
-        <v>1762559</v>
-      </c>
-      <c r="S4">
-        <v>4318824</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2001</v>
       </c>
@@ -624,20 +582,8 @@
         <f t="shared" ref="M5:M16" si="2">K5-L5</f>
         <v>2571521</v>
       </c>
-      <c r="P5">
-        <v>7029425</v>
-      </c>
-      <c r="Q5">
-        <v>4381256</v>
-      </c>
-      <c r="R5">
-        <v>1772533</v>
-      </c>
-      <c r="S5">
-        <v>4381256</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2002</v>
       </c>
@@ -680,20 +626,8 @@
         <f t="shared" si="2"/>
         <v>3558943</v>
       </c>
-      <c r="P6">
-        <v>7205280</v>
-      </c>
-      <c r="Q6">
-        <v>4549628</v>
-      </c>
-      <c r="R6">
-        <v>1819107</v>
-      </c>
-      <c r="S6">
-        <v>4549628</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2003</v>
       </c>
@@ -736,20 +670,8 @@
         <f t="shared" si="2"/>
         <v>2738147</v>
       </c>
-      <c r="P7">
-        <v>7354958</v>
-      </c>
-      <c r="Q7">
-        <v>4731114</v>
-      </c>
-      <c r="R7">
-        <v>1848378</v>
-      </c>
-      <c r="S7">
-        <v>4731114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2004</v>
       </c>
@@ -792,20 +714,8 @@
         <f t="shared" si="2"/>
         <v>1909775</v>
       </c>
-      <c r="P8">
-        <v>7379990</v>
-      </c>
-      <c r="Q8">
-        <v>4746624</v>
-      </c>
-      <c r="R8">
-        <v>1856441</v>
-      </c>
-      <c r="S8">
-        <v>4746624</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2005</v>
       </c>
@@ -848,20 +758,8 @@
         <f t="shared" si="2"/>
         <v>1883342</v>
       </c>
-      <c r="P9">
-        <v>7396042</v>
-      </c>
-      <c r="Q9">
-        <v>4734667</v>
-      </c>
-      <c r="R9">
-        <v>1860949</v>
-      </c>
-      <c r="S9">
-        <v>4734667</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2006</v>
       </c>
@@ -904,20 +802,8 @@
         <f t="shared" si="2"/>
         <v>5779758</v>
       </c>
-      <c r="P10">
-        <v>7408280</v>
-      </c>
-      <c r="Q10">
-        <v>4736660</v>
-      </c>
-      <c r="R10">
-        <v>1852825</v>
-      </c>
-      <c r="S10">
-        <v>4736660</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2007</v>
       </c>
@@ -960,20 +846,8 @@
         <f t="shared" si="2"/>
         <v>9332373</v>
       </c>
-      <c r="P11">
-        <v>7442687</v>
-      </c>
-      <c r="Q11">
-        <v>4782337</v>
-      </c>
-      <c r="R11">
-        <v>3729144</v>
-      </c>
-      <c r="S11">
-        <v>4782337</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2008</v>
       </c>
@@ -1016,20 +890,8 @@
         <f t="shared" si="2"/>
         <v>2582296</v>
       </c>
-      <c r="P12">
-        <v>7698619</v>
-      </c>
-      <c r="Q12">
-        <v>4966826</v>
-      </c>
-      <c r="R12">
-        <v>7698619</v>
-      </c>
-      <c r="S12">
-        <v>4966826</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2009</v>
       </c>
@@ -1072,23 +934,14 @@
         <f t="shared" si="2"/>
         <v>2534504</v>
       </c>
-      <c r="P13">
-        <v>8076937</v>
-      </c>
-      <c r="Q13">
-        <v>5192092</v>
-      </c>
-      <c r="R13">
-        <v>8077386</v>
-      </c>
-      <c r="S13">
-        <v>5192092</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2010</v>
       </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
       <c r="E14" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1101,20 +954,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P14">
-        <v>8398101</v>
-      </c>
-      <c r="Q14">
-        <v>5363837</v>
-      </c>
-      <c r="R14">
-        <v>8401105</v>
-      </c>
-      <c r="S14">
-        <v>5363837</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2011</v>
       </c>
@@ -1130,20 +971,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P15">
-        <v>8492754</v>
-      </c>
-      <c r="Q15">
-        <v>5399474</v>
-      </c>
-      <c r="R15">
-        <v>8492754</v>
-      </c>
-      <c r="S15">
-        <v>5399474</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2012</v>
       </c>
@@ -1159,20 +988,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P16">
-        <v>8424508</v>
-      </c>
-      <c r="Q16">
-        <v>5380229</v>
-      </c>
-      <c r="R16">
-        <v>8424508</v>
-      </c>
-      <c r="S16">
-        <v>5380229</v>
-      </c>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
         <f>SUM(B4:B16)</f>
         <v>63393561</v>
@@ -1221,24 +1038,8 @@
         <f t="shared" si="3"/>
         <v>36378514</v>
       </c>
-      <c r="P18">
-        <f>SUM(P4:P16)</f>
-        <v>99309324</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" ref="Q18:S18" si="4">SUM(Q4:Q16)</f>
-        <v>63283568</v>
-      </c>
-      <c r="R18">
-        <f t="shared" si="4"/>
-        <v>57596308</v>
-      </c>
-      <c r="S18">
-        <f t="shared" si="4"/>
-        <v>63283568</v>
-      </c>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -1267,41 +1068,41 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <f>1-D21-E21</f>
         <v>0.53598255822858731</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <f>D18/$B$18</f>
         <v>9.9119514677523793E-2</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <f>E18/$B$18</f>
         <v>0.36489792709388891</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="2">
         <f>1-H21-I21</f>
         <v>0.84157106684942229</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="2">
         <f>H18/$F$18</f>
         <v>1.5971845320711792E-2</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="2">
         <f>I18/$F$18</f>
         <v>0.14245708782986582</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="2">
         <f>1-L21-M21</f>
         <v>0.71845331700517789</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="2">
         <f>L18/$J$18</f>
         <v>2.3963351489475208E-2</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="2">
         <f>M18/$J$18</f>
         <v>0.2575833315053469</v>
       </c>
